--- a/BluePrism_簡易開発マニュアル_v1.0.xlsx
+++ b/BluePrism_簡易開発マニュアル_v1.0.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazua\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154CEBB-9B37-4332-A7C3-E5A8E0E72A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC2A7C-D2EC-4FE6-A955-ED2B6AFC2887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84E2DB07-4BD2-4712-8A29-6883507C1099}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{84E2DB07-4BD2-4712-8A29-6883507C1099}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクト" sheetId="2" r:id="rId1"/>
     <sheet name="プロセス" sheetId="4" r:id="rId2"/>
+    <sheet name="シナリオテスト" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">シナリオテスト!$B$2:$Q$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="266">
   <si>
     <t>オブジェクト</t>
     <phoneticPr fontId="1"/>
@@ -886,10 +889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BluePrism チートシート（オブジェクト）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コントロールルーム非公開の
 アタッチ用のアクションページを作ると良い</t>
     <rPh sb="9" eb="12">
@@ -1186,10 +1185,6 @@
     <rPh sb="19" eb="21">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BluePrism チートシート（プロセス）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2521,12 +2516,1332 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BluePrism開発ガイドライン（オブジェクト）</t>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BluePrism開発ガイドライン（プロセス）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BluePrism テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入者</t>
+    <rPh sb="0" eb="3">
+      <t>キニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認者</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認結果</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel,CSVなど、プロセスのインプットパラメータによるパターンテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TSH清海</t>
+    <rPh sb="3" eb="4">
+      <t>キヨシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入日</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>エビデンス資料参照先</t>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定結果</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TSH〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーとなる項目を設定する</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外発生理由</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外発生箇所が詳細に分かる内容を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランタイムリソース（RR）実行</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1台のRRでセッション実行する</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2台のRRで同時にセッション実行する</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3台のRRで同時にセッション実行する</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象アプリケーションのアクティブ化に失敗しないか？</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスが正常終了すること</t>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3台のRRをプール設定</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3セッション同時実行する</t>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのRRでプロセスが正常終了すること</t>
+    <rPh sb="13" eb="15">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインエージェント（LA）との組み合わせ</t>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認対象のRRをアイドル状態にしておく</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認対象のRRはスクリーンロックをかけておく</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAでスクリーンロック解除後、プロセスをスケジュール実行</t>
+    <rPh sb="11" eb="13">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAでWindowsサインイン⇒プロセスをスケジュール実行⇒LAでサインアウト</t>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認対象のRRはサインアウトしておく</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス終了後、Windowsがサインアウトされていること</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール実行</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇分ごとにプロセスが実行されるよう、スケジュールを設定しておく
+※〇分以内にプロセスは完了するものとする</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇分ごとにプロセスをスケジュール実行する</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール通りプロセスが実行され、正常終了すること</t>
+    <rPh sb="6" eb="7">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>〇分ごとにプロセスが実行されるよう、スケジュールを設定しておく
+※〇分以内に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロセスが完了しない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ものとする</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行時間がスケジュール間隔を超過した場合、
+プロセス完了後、次にスケジュールされた時間に再度正常に実行されること</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスで例外発生時、次タスクは実行しない設定としておく</t>
+    <rPh sb="5" eb="7">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇分ごとにプロセスをスケジュール実行し、プロセスで例外を発生させる</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスで例外発生後、次タスクは実行されないこと</t>
+    <rPh sb="5" eb="7">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働安定性</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アンテイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10件</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20件</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100件</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働回数</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度もプロセスが失敗せず、正常終了すること</t>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての稼働において同じインプットパラメータ（正常系）を用いる</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1セッション1RRで捌くインプットレコード件数</t>
+    <rPh sb="10" eb="11">
+      <t>サバ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負荷分散</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000件のインプットレコードを3台のRRで分散処理する</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3台のRRを1つのプールに設定しておく</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000件のインプットレコード（正常系）を用意
+3台のRRを1つのプールに設定しておく</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのRRにおいて、プロセスが正常終了すること</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1プロセスに紐付くワークキューが複数存在する</t>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューデータの関係性が正しく保たれていることを確認する</t>
+    <rPh sb="7" eb="10">
+      <t>カンケイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのキューデータの関係性が正しく保たれていることを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知先メールアドレス</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知先メールアドレスが複数件の場合（カンマ区切り）、すべての通知先にメールが送信されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数の通知先メールアドレスを複数件設定しておく</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての通知先にメールが送信されること</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数の通知先メールアドレスを空白にしておく</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールが送信されないこと</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知先メールアドレスが何も設定されていない場合、メールが送信されないことを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定外のメールアドレスに通知されていないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知先メールアドレスが複数件、かつ、不正なメールアドレスが混在している場合、
+不正なメールアドレス以外のすべての通知先にメールが送信されることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なメールアドレス以外のすべての通知先にメールが送信されること</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知件数</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ通知メールを複数送っていないことを確認する</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ通知メールを複数送っていないこと</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスが停止されること</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークキューのステータスが「中止」となること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行中にAPサーバとの接続エラーが発生した場合、
+プロセスは停止され、ワークキューのステータスは「中止」となることを確認する</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行中にDBサーバとの接続エラーが発生した場合、
+プロセスは停止され、ワークキューのステータスは「中止」となることを確認する</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行中にDBサーバとの接続エラーを発生させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行中にAPサーバとの接続エラーを発生させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBサーバ接続エラー</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APサーバ接続エラー</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作対象システム接続エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作対象システムの稼働時間外にプロセスを稼働させる
+※もしくは操作対象システムとの接続を解除した状態にする</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス実行中に操作対象システムとの接続エラーが発生した場合、
+プロセスは停止され、ワークキューのステータスは「中止」となることを確認する</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中異常系のレコードを混在させる</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中異常系のレコードが存在する場合、そのレコードに対応するキューデータは例外となり、次のレコードに正常に処理が移ることを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系のキューデータが例外マークされていること</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次レコードへ正常に処理が移っていること</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2557,8 +3872,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2598,6 +3921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,7 +4085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2934,11 +4263,257 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3253,7 +4828,9 @@
   </sheetPr>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3265,17 +4842,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -3316,13 +4893,13 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3343,17 +4920,17 @@
         <v>34</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -3361,7 +4938,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="27"/>
       <c r="E12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
@@ -3374,7 +4951,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3384,10 +4961,10 @@
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -3430,7 +5007,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -3438,7 +5015,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3457,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -3472,7 +5049,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -3488,7 +5065,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3501,17 +5078,17 @@
         <v>41</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -3536,10 +5113,10 @@
       <c r="B32" s="14"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -3702,7 +5279,7 @@
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
       <c r="D51" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="14"/>
     </row>
@@ -3710,7 +5287,7 @@
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="14"/>
     </row>
@@ -3839,7 +5416,7 @@
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="14"/>
       <c r="C67" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
@@ -3848,7 +5425,7 @@
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
       <c r="D68" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="14"/>
     </row>
@@ -3864,10 +5441,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3880,7 +5457,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -3888,10 +5465,10 @@
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3908,10 +5485,10 @@
       <c r="C4" s="20"/>
       <c r="D4" s="16"/>
       <c r="E4" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -3920,13 +5497,13 @@
       <c r="D5" s="23"/>
       <c r="E5" s="24"/>
       <c r="F5" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
       <c r="C6" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
@@ -3937,10 +5514,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -3948,10 +5525,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -3959,10 +5536,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3970,10 +5547,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -3981,10 +5558,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3992,15 +5569,15 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -4010,7 +5587,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
       <c r="C14" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
@@ -4021,10 +5598,10 @@
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -4032,10 +5609,10 @@
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -4043,15 +5620,15 @@
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -4061,15 +5638,15 @@
     <row r="19" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B19" s="14"/>
       <c r="E19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="35"/>
@@ -4081,7 +5658,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" s="26"/>
     </row>
@@ -4090,13 +5667,13 @@
       <c r="C22" s="20"/>
       <c r="D22" s="16"/>
       <c r="E22" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="35"/>
@@ -4106,7 +5683,7 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="14"/>
       <c r="C24" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="46"/>
@@ -4117,7 +5694,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" s="26"/>
     </row>
@@ -4126,7 +5703,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="26"/>
     </row>
@@ -4135,14 +5712,14 @@
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="14"/>
       <c r="C28" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
@@ -4153,13 +5730,13 @@
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="35"/>
@@ -4171,10 +5748,10 @@
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
@@ -4189,7 +5766,7 @@
     <row r="33" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B33" s="14"/>
       <c r="E33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="43"/>
@@ -4197,7 +5774,7 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="14"/>
       <c r="C34" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="46"/>
@@ -4209,7 +5786,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F35" s="55"/>
       <c r="I35" s="3"/>
@@ -4219,7 +5796,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="26"/>
       <c r="I36" s="3"/>
@@ -4229,14 +5806,14 @@
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F37" s="26"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="35"/>
@@ -4248,14 +5825,14 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="26"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="14"/>
       <c r="C40" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="46"/>
@@ -4267,7 +5844,7 @@
       <c r="C41" s="52"/>
       <c r="D41" s="53"/>
       <c r="E41" s="54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F41" s="56"/>
       <c r="I41" s="3"/>
@@ -4277,14 +5854,14 @@
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F42" s="26"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="35"/>
@@ -4296,15 +5873,15 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
@@ -4316,10 +5893,10 @@
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
@@ -4336,7 +5913,7 @@
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F48" s="26"/>
     </row>
@@ -4348,7 +5925,7 @@
         <v>39</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
@@ -4365,7 +5942,7 @@
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" s="26"/>
     </row>
@@ -4374,7 +5951,7 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="26"/>
     </row>
@@ -4392,10 +5969,10 @@
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="75" x14ac:dyDescent="0.4">
@@ -4403,16 +5980,16 @@
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="14"/>
       <c r="C56" s="50" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="57"/>
@@ -4423,179 +6000,175 @@
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="19" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="14"/>
       <c r="C58" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="57"/>
       <c r="F58" s="58"/>
     </row>
-    <row r="59" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="14"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="26"/>
+        <v>159</v>
+      </c>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="38"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
     </row>
     <row r="61" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B61" s="14"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>95</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="38"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="14"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B64" s="14"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" s="26"/>
+        <v>187</v>
+      </c>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="38"/>
     </row>
     <row r="65" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="14"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>17</v>
-      </c>
+      <c r="B66" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="21" t="s">
-        <v>20</v>
+      <c r="B67" s="14"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="26" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B68" s="14"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="14"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B73" s="14"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="34" t="s">
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="38"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="14"/>
-      <c r="C71" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="14"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="14"/>
-      <c r="C73" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="14"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>158</v>
-      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="38"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="14"/>
       <c r="C75" s="51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="46"/>
@@ -4606,13 +6179,1621 @@
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="26"/>
+        <v>158</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="14"/>
+      <c r="C77" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="47"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="14"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="14"/>
+      <c r="C79" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="47"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="14"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B9F459-DA3A-44C7-9A1A-043B348434A7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="3.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="70.5" style="3" customWidth="1"/>
+    <col min="9" max="10" width="58" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="55.375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="59">
+        <v>44013</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="59">
+        <v>44013</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="H27" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="2:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:Q2" xr:uid="{4E68B7D0-8FB0-4E8F-B7A7-4218047FC438}">
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="K3:O3 Q3 B15:F15 B28:E28 G28:I28 B27:F27 H27 B16:H26 B13:G14 B3:H3 B29:H31 B32:G33 B6:H12 Q6:Q42 K6:O42 B34:H42">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$O3="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J18:J19 J31 J6:J14 J16 J21:J27 J29 J34 J36:J42">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$O3="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3 P6:P42">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$O3="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I19 I21:I31 I34:I42 I6:I14">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$O6="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$O15="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$O15="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$O15="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$O17="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$O20="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$O20="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H14">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$O13="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$O15="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$O30="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I51">
+    <cfRule type="expression" dxfId="26" priority="12">
+      <formula>$O43="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="expression" dxfId="25" priority="7">
+      <formula>$O35="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$O32="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$O33="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$O33="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$O33="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$O32="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$O32="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J60">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$O52="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:P60">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>$O52="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I60">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$O52="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:O51 Q43:Q51 B43:H51">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$O43="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:J51">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$O43="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:P51">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$O43="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:O60 Q52:Q60 B52:H60">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$O52="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$O4="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P5">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$O4="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$O4="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:O5 Q4:Q5 B4:H5">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$O4="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$O3="NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O60" xr:uid="{5E7B7B21-3C03-44A4-9AA6-2D5E506EFC54}">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>